--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -280,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -832,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -849,59 +855,59 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
@@ -918,24 +924,47 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Atto di riferimento</t>
@@ -286,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -579,19 +585,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -602,16 +608,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -625,7 +631,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -634,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -648,7 +654,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -657,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -671,7 +677,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -680,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -694,16 +700,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -717,19 +723,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -740,19 +746,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -763,7 +769,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
@@ -772,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -786,19 +792,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -809,7 +815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
@@ -818,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -832,7 +838,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -841,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -855,16 +861,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -878,59 +884,59 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
@@ -947,24 +953,47 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Atto di riferimento</t>
@@ -292,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -585,19 +579,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -608,16 +602,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -640,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -654,7 +648,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -663,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -677,7 +671,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -686,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -700,16 +694,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -723,19 +717,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -746,19 +740,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -769,7 +763,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
@@ -778,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -792,19 +786,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -815,7 +809,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
@@ -824,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -838,7 +832,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -847,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -861,16 +855,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -884,59 +878,59 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
@@ -953,47 +947,24 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_998_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>Sezione</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Atto di riferimento</t>
@@ -292,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -608,19 +614,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -631,16 +637,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -654,7 +660,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -663,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -677,7 +683,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -686,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -700,7 +706,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -709,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -723,16 +729,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -746,19 +752,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -769,19 +775,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -792,7 +798,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
@@ -801,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -815,19 +821,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -838,7 +844,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -847,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -861,7 +867,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
@@ -870,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -884,16 +890,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -907,59 +913,59 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>14</v>
@@ -976,24 +982,47 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
